--- a/tables/crosstab/crosstab_age/crosstab_app_age/Age VS revealed,.xlsx
+++ b/tables/crosstab/crosstab_age/crosstab_app_age/Age VS revealed,.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>No, not at all</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>41-64</t>
-  </si>
-  <si>
-    <t>7-14</t>
   </si>
 </sst>
 </file>
@@ -410,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +447,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>19</v>
@@ -459,19 +456,19 @@
         <v>37</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2">
-        <v>15.23</v>
+        <v>15.25</v>
       </c>
       <c r="G2">
-        <v>4.67</v>
+        <v>4.75</v>
       </c>
       <c r="H2">
-        <v>9.09</v>
+        <v>9.25</v>
       </c>
       <c r="I2">
-        <v>28.99</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -479,28 +476,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>48</v>
       </c>
       <c r="E3">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F3">
-        <v>17.94</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>9.83</v>
+        <v>9.75</v>
       </c>
       <c r="H3">
-        <v>11.79</v>
+        <v>12</v>
       </c>
       <c r="I3">
-        <v>39.56</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -508,85 +505,56 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>37</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F4">
-        <v>9.83</v>
+        <v>9.75</v>
       </c>
       <c r="G4">
-        <v>9.09</v>
+        <v>9.25</v>
       </c>
       <c r="H4">
-        <v>12.29</v>
+        <v>12</v>
       </c>
       <c r="I4">
-        <v>31.2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>23.75</v>
       </c>
       <c r="H5">
-        <v>0.25</v>
+        <v>33.25</v>
       </c>
       <c r="I5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>175</v>
-      </c>
-      <c r="C6">
-        <v>96</v>
-      </c>
-      <c r="D6">
-        <v>136</v>
-      </c>
-      <c r="E6">
-        <v>407</v>
-      </c>
-      <c r="F6">
-        <v>43</v>
-      </c>
-      <c r="G6">
-        <v>23.59</v>
-      </c>
-      <c r="H6">
-        <v>33.42</v>
-      </c>
-      <c r="I6">
         <v>100</v>
       </c>
     </row>
